--- a/data/trans_camb/P20_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,02</t>
+          <t>-14,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,75</t>
+          <t>-9,24</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 6,31</t>
+          <t>-15,66; 5,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,78; -2,88</t>
+          <t>-25,15; -3,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,08; -0,34</t>
+          <t>-16,96; -1,28</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>-17,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>-29,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,04%</t>
+          <t>-24,33%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 26,5</t>
+          <t>-45,92; 24,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,41; -6,21</t>
+          <t>-46,45; -6,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,19; -0,59</t>
+          <t>-41,03; -3,76</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>-6,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-3,38</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 11,47</t>
+          <t>-11,43; 13,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 3,7</t>
+          <t>-16,5; 2,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 4,24</t>
+          <t>-10,9; 4,92</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,51%</t>
+          <t>-20,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,77%</t>
+          <t>-12,9%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,19; 76,03</t>
+          <t>-46,41; 91,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 13,33</t>
+          <t>-45,08; 8,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 19,83</t>
+          <t>-36,77; 23,09</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 10,02</t>
+          <t>-8,82; 5,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 7,84</t>
+          <t>-6,45; 8,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 5,98</t>
+          <t>-5,5; 4,82</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>-8,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>-1,19%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 61,4</t>
+          <t>-39,29; 30,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 28,73</t>
+          <t>-19,17; 31,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 26,83</t>
+          <t>-19,88; 21,43</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 9,91</t>
+          <t>-5,0; 9,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 7,87</t>
+          <t>-5,01; 8,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 6,35</t>
+          <t>-2,87; 6,73</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 62,58</t>
+          <t>-23,04; 62,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 41,66</t>
+          <t>-20,59; 43,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 34,46</t>
+          <t>-13,28; 37,15</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>-6,9</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-4,01</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 4,51</t>
+          <t>-8,05; 4,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,07; -0,03</t>
+          <t>-14,72; 1,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 0,3</t>
+          <t>-9,38; 1,02</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-9,88%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-26,53%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-21,24%</t>
+          <t>-19,05%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 40,66</t>
+          <t>-46,76; 48,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 0,08</t>
+          <t>-45,87; 3,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 2,25</t>
+          <t>-40,16; 5,6</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>-1,66</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 6,48</t>
+          <t>-11,84; 7,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 5,76</t>
+          <t>-8,52; 8,02</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 3,87</t>
+          <t>-8,22; 4,6</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>-22,62%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-6,87%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>-7,92%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-62,58; 60,7</t>
+          <t>-61,95; 60,43</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 26,41</t>
+          <t>-30,38; 36,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 20,56</t>
+          <t>-33,7; 23,76</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-2,33</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 2,4</t>
+          <t>-4,79; 2,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,05; -0,51</t>
+          <t>-6,46; 0,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,06</t>
+          <t>-4,71; 0,2</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-12,68%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-10,34%</t>
+          <t>-9,41%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 13,87</t>
+          <t>-22,92; 12,79</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,26; -1,53</t>
+          <t>-20,57; 0,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 0,24</t>
+          <t>-18,17; 0,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,04</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-14,07</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-9,24</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.077581994971874</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-13.99396824697581</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-8.635830479580569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,66; 5,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-25,15; -3,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,96; -1,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.07494414959913</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-25.61845068875227</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-16.49687603541416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-17,61%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-29,07%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-24,33%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.991920553768264</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-3.012161448342408</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.6513743997389553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-45,92; 24,48</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-46,45; -6,78</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-41,03; -3,76</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1425023011150177</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.2891829618451706</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.2272881874171438</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,79</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4423762973666835</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4625192796788812</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4012325198971385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,43; 13,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 2,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 4,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.3020890513114133</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-0.06495396570959268</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-0.01988774560035172</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,91%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-20,95%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-12,9%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.6880326867170217</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.725574557317426</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.637920506047018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-46,41; 91,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-45,08; 8,57</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-36,77; 23,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.94302594669834</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.92023168594497</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.22454931674856</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.60102627807835</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.709319561869799</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.198295506506759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,82; 5,12</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 8,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,5; 4,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.03357290013753246</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.2075057940754719</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1388135127458726</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-8,48%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,97%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,19%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4886041923708458</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4337788006425901</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3706060026442092</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-39,29; 30,09</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-19,17; 31,64</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-19,88; 21,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.7908677714331616</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.09487533491230322</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1988766977860678</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.936608476524784</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.5904397846536402</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.6871313916593957</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,0; 9,71</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 8,31</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,87; 6,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.128395073109004</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-6.844206943899529</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.125109067136354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>10,37%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>8,55%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.450568536896566</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.35854193261769</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.368669556613964</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-23,04; 62,48</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-20,59; 43,15</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 37,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1006343855177256</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.01906995166686499</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.02728733352161215</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-6,9</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-4,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.4116562968760067</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2061347904141506</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2268985964371307</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-8,05; 4,98</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-14,72; 1,19</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-9,38; 1,02</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2686482391785112</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.3078656019318285</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2002330257585562</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-9,88%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-24,1%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-19,05%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.718780435377509</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.897205792852816</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.790539131422633</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-46,76; 48,93</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-45,87; 3,07</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-40,16; 5,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.153994526666303</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.858409885420369</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.244457060024917</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-3,54</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.326023323306899</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>8.582657719410728</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.599029423200081</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-11,84; 7,45</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-8,52; 8,02</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-8,22; 4,6</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.0930793334022708</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.08638727241187273</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.08823392305595641</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-22,62%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-0,6%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-7,92%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2372046340976381</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1949592863709934</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1431038484543806</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-61,95; 60,43</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-30,38; 36,39</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-33,7; 23,76</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.5809312983189577</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.4681236585336701</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.3716943983387421</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-3,15</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-1.631468259365672</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-7.088269765852079</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-4.285146622764671</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 2,28</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 0,14</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 0,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-8.25732070854904</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-14.87567239733983</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-9.654314986267471</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-7,52%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-10,48%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-9,41%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>5.079400586631102</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>0.8312248322785123</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0.7052612479202658</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-22,92; 12,79</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-20,57; 0,51</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-18,17; 0,92</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.120053974939121</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.2477174012770725</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.2037479530086265</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.4788891610762895</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.4589466220081747</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.4073137261718027</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.4837229050983415</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.03188153807751457</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.04428116440384323</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-4.459145675698416</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-2.345510644827836</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-3.294997326723678</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-13.0260015228508</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-10.02601582182732</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-9.014120143202845</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>6.498776399636672</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>5.806651276325997</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>2.850779750361139</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.2808148967731007</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.09357705273019644</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.1557274675034933</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.6481480986538908</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.3552707502532179</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.3845288681551285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.5790300261067309</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.2777494564264856</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.1472418501312125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-1.684527977231268</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-3.622672414048</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-2.688956918841692</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-5.191525856303945</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-6.924898851518148</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-5.313137653929517</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>2.231457966328853</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>-0.1560084813919645</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>-0.1326570172453012</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.08713405302769181</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.1201795370015957</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.108144968750323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.2439280354154561</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.2201777250698911</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.2039870455721752</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.1259890871059049</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>-0.005779462831530434</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>-0.005489705141507491</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
